--- a/commerce_estate/nmarket/data/Luppolovo/Supply.xlsx
+++ b/commerce_estate/nmarket/data/Luppolovo/Supply.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +583,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4839037</t>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4544392</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -593,12 +593,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://img.nmarket.pro/photo/pid/3630f39f-8f90-4c68-853b-bbd1288350ef/?type=png&amp;v=1&amp;wpsid=8</t>
+          <t>https://img.nmarket.pro/photo/pid/85caceb8-70b6-4bca-9a17-7ba2634c058d/?type=png&amp;v=1&amp;wpsid=8</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>49.55</t>
+          <t>49.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>16.78</t>
+          <t>16.7</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -636,7 +636,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>100</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>4872000</v>
+        <v>4891670</v>
       </c>
       <c r="S2" t="n">
-        <v>98324.92432000001</v>
+        <v>98325.02512999999</v>
       </c>
       <c r="T2" t="n">
-        <v>4872000</v>
+        <v>4891670</v>
       </c>
       <c r="U2" t="n">
-        <v>136416</v>
+        <v>136967</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4544392</t>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4544371</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -724,22 +724,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://img.nmarket.pro/photo/pid/85caceb8-70b6-4bca-9a17-7ba2634c058d/?type=png&amp;v=1&amp;wpsid=8</t>
+          <t>https://img.nmarket.pro/photo/pid/7e270010-18bb-4bd4-933d-5f04eb6310f3/?type=png&amp;v=1&amp;wpsid=8</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>49.75</t>
+          <t>52.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>17.8</t>
+          <t>18.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>16.7</t>
+          <t>17.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>лоджия</t>
+          <t>Лоджия на комнату и кухню</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>28</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -796,16 +796,16 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4891670</v>
+        <v>5266850</v>
       </c>
       <c r="S3" t="n">
-        <v>98325.02512999999</v>
+        <v>101188.2805</v>
       </c>
       <c r="T3" t="n">
-        <v>4891670</v>
+        <v>5266850</v>
       </c>
       <c r="U3" t="n">
-        <v>136967</v>
+        <v>147472</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4544371</t>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4544390</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -855,22 +855,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://img.nmarket.pro/photo/pid/7e270010-18bb-4bd4-933d-5f04eb6310f3/?type=png&amp;v=1&amp;wpsid=8</t>
+          <t>https://img.nmarket.pro/photo/pid/0933161c-1180-475c-88e0-eb235c79145a/?type=png&amp;v=1&amp;wpsid=8</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>52.05</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>18.85</t>
+          <t>15.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>17.97</t>
+          <t>17.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -885,12 +885,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Лоджия на комнату и кухню</t>
+          <t>лоджия</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -898,7 +898,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>93</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -927,16 +927,16 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>5266850</v>
+        <v>5309550</v>
       </c>
       <c r="S4" t="n">
-        <v>101188.2805</v>
+        <v>98325</v>
       </c>
       <c r="T4" t="n">
-        <v>5266850</v>
+        <v>5309550</v>
       </c>
       <c r="U4" t="n">
-        <v>147472</v>
+        <v>148667</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4544390</t>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4544383</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -986,22 +986,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://img.nmarket.pro/photo/pid/0933161c-1180-475c-88e0-eb235c79145a/?type=png&amp;v=1&amp;wpsid=8</t>
+          <t>https://img.nmarket.pro/photo/pid/3d883b3a-2395-4d30-bcf7-ba94385b3702/?type=png&amp;v=1&amp;wpsid=8</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>57.15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>15.72</t>
+          <t>20.7</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>17.43</t>
+          <t>20.87</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>лоджия</t>
+          <t>Лоджия на комнату и кухню</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>79</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1058,16 +1058,16 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>5309550</v>
+        <v>5619275</v>
       </c>
       <c r="S5" t="n">
-        <v>98325</v>
+        <v>98325.02187</v>
       </c>
       <c r="T5" t="n">
-        <v>5309550</v>
+        <v>5619275</v>
       </c>
       <c r="U5" t="n">
-        <v>148667</v>
+        <v>157340</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1099,137 +1099,6 @@
         </is>
       </c>
       <c r="AC5" t="inlineStr">
-        <is>
-          <t>К-П</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4544383</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://img.nmarket.pro/photo/pid/3d883b3a-2395-4d30-bcf7-ba94385b3702/?type=png&amp;v=1&amp;wpsid=8</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>57.15</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20.7</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>20.87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Черновая отделка</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Раздельный</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Лоджия на комнату и кухню</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>4</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Луговое</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>81386</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>СМУ-47</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Всеволожский р-н</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Сдан</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>5619275</v>
-      </c>
-      <c r="S6" t="n">
-        <v>98325.02187</v>
-      </c>
-      <c r="T6" t="n">
-        <v>5619275</v>
-      </c>
-      <c r="U6" t="n">
-        <v>157340</v>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>1ккв</t>
-        </is>
-      </c>
-      <c r="W6" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="X6" t="n">
-        <v>2022</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>Монолитно-каркасный</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>Есть</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>Ипотека, Субсидия, Материнский капитал</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
         <is>
           <t>К-П</t>
         </is>
